--- a/distancedata/data.xlsx
+++ b/distancedata/data.xlsx
@@ -163,11 +163,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="133706496"/>
-        <c:axId val="115215360"/>
+        <c:axId val="72193536"/>
+        <c:axId val="72195072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133706496"/>
+        <c:axId val="72193536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -177,12 +177,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115215360"/>
+        <c:crossAx val="72195072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="115215360"/>
+        <c:axId val="72195072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -193,7 +193,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133706496"/>
+        <c:crossAx val="72193536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -535,7 +535,7 @@
   <dimension ref="A1:I812"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I6"/>
+      <selection activeCell="J1" sqref="J1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
